--- a/Excel/镇魂街/技能/技能参数表.xlsx
+++ b/Excel/镇魂街/技能/技能参数表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8811EDF-C1C1-4C68-85D8-ABBCC2998D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2D3DF6-C427-46A7-89C8-6568F467B021}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EffectCondition" sheetId="1" r:id="rId1"/>
@@ -633,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终加成值=（C*效果等级+D）*判定次数，判定次数=1-（当前生命值/最大生命值）/value，C、D为小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将自身颜色水晶转换为其他颜色水晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,6 +685,10 @@
   </si>
   <si>
     <t>效果ID#效果ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终加成值=（C*效果等级+D）*判定次数，判定次数=[1-（当前生命值/最大生命值）]/value，C、D为小数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>80</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE70514E-AF71-4E78-950E-B07442E86169}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1795,10 +1795,10 @@
         <v>1009</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1866,10 +1866,10 @@
         <v>3004</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2075,10 +2075,10 @@
         <v>4021</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,10 +2086,10 @@
         <v>4022</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2097,10 +2097,10 @@
         <v>4023</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2108,10 +2108,10 @@
         <v>4024</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2119,10 +2119,10 @@
         <v>4025</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
